--- a/5-FuncoesMercadoTrabalho/66. Função INDIRETO - Uso com Outros Funções - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/66. Função INDIRETO - Uso com Outros Funções - Material(1).xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 8 - Funções Mercado de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C38312D-CE8D-4339-BCB9-83F5508DBD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D8138A-48D7-4EB2-8D20-1A7CCD250081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="801" xr2:uid="{C3784EBB-09BF-477B-9CB0-C14E8EE5D46B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="801" xr2:uid="{C3784EBB-09BF-477B-9CB0-C14E8EE5D46B}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="23" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Corolla">Base!$E$3:$E$13</definedName>
+    <definedName name="Duster">Base!$G$3:$G$13</definedName>
+    <definedName name="Etios">Base!$F$3:$F$13</definedName>
+    <definedName name="Kicks">Base!$D$3:$D$13</definedName>
+    <definedName name="Logan">Base!$H$3:$H$13</definedName>
+    <definedName name="Produção">Base!$B$3:$B$13</definedName>
+    <definedName name="Sandero">Base!$I$3:$I$13</definedName>
+    <definedName name="Versa">Base!$C$3:$C$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,8 +39,33 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -178,9 +213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,7 +253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -324,7 +359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,17 +512,17 @@
   <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="9" width="10.88671875" customWidth="1"/>
-    <col min="11" max="13" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="9" width="10.85546875" customWidth="1"/>
+    <col min="11" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>0</v>
@@ -522,7 +557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>2010</v>
       </c>
@@ -550,12 +585,15 @@
       <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <f ca="1">SUM(INDIRECT(K2))</f>
+        <v>465600</v>
+      </c>
       <c r="M3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>2011</v>
       </c>
@@ -583,12 +621,15 @@
       <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <f ca="1">AVERAGE(INDIRECT(K2))</f>
+        <v>42327.272727272728</v>
+      </c>
       <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2012</v>
       </c>
@@ -616,10 +657,13 @@
       <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <f ca="1">MAX(INDIRECT(K2))</f>
+        <v>87200</v>
+      </c>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>2013</v>
       </c>
@@ -647,10 +691,13 @@
       <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <f ca="1">MIN(INDIRECT(K2))</f>
+        <v>12600</v>
+      </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>2014</v>
       </c>
@@ -676,7 +723,7 @@
         <v>76500</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>2015</v>
       </c>
@@ -711,7 +758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2016</v>
       </c>
@@ -739,12 +786,15 @@
       <c r="K9" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">SUM(INDEX(K8, INDIRECT(Produção)))</f>
+        <v>#REF!</v>
+      </c>
       <c r="M9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>2017</v>
       </c>
@@ -777,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>2018</v>
       </c>
@@ -808,7 +858,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2019</v>
       </c>
@@ -839,7 +889,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>2020</v>
       </c>
